--- a/app/app/data/download-data/iTRAQI - ASGS 2021 SA2.xlsx
+++ b/app/app/data/download-data/iTRAQI - ASGS 2021 SA2.xlsx
@@ -1825,19 +1825,19 @@
     <t>ra_name</t>
   </si>
   <si>
+    <t>Major Cities of Australia</t>
+  </si>
+  <si>
+    <t>Remote Australia</t>
+  </si>
+  <si>
+    <t>Inner Regional Australia</t>
+  </si>
+  <si>
+    <t>Outer Regional Australia</t>
+  </si>
+  <si>
     <t>Very Remote Australia</t>
-  </si>
-  <si>
-    <t>Inner Regional Australia</t>
-  </si>
-  <si>
-    <t>Remote Australia</t>
-  </si>
-  <si>
-    <t>Major Cities of Australia</t>
-  </si>
-  <si>
-    <t>Outer Regional Australia</t>
   </si>
 </sst>
 </file>
@@ -26158,7 +26158,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="s">
         <v>595</v>
@@ -26169,7 +26169,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="s">
         <v>595</v>
@@ -26180,10 +26180,10 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5">
@@ -26191,10 +26191,10 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6">
@@ -26202,7 +26202,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" t="s">
         <v>595</v>
@@ -26213,10 +26213,10 @@
         <v>36</v>
       </c>
       <c r="B7" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>38</v>
       </c>
       <c r="B9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" t="s">
         <v>595</v>
@@ -26246,7 +26246,7 @@
         <v>39</v>
       </c>
       <c r="B10" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C10" t="s">
         <v>595</v>
@@ -26257,10 +26257,10 @@
         <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12">
@@ -26268,7 +26268,7 @@
         <v>41</v>
       </c>
       <c r="B12" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C12" t="s">
         <v>595</v>
@@ -26279,7 +26279,7 @@
         <v>42</v>
       </c>
       <c r="B13" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C13" t="s">
         <v>595</v>
@@ -26290,10 +26290,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15">
@@ -26301,7 +26301,7 @@
         <v>44</v>
       </c>
       <c r="B15" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C15" t="s">
         <v>597</v>
@@ -26312,10 +26312,10 @@
         <v>45</v>
       </c>
       <c r="B16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C16" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17">
@@ -26323,10 +26323,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18">
@@ -26334,10 +26334,10 @@
         <v>47</v>
       </c>
       <c r="B18" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C18" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19">
@@ -26345,10 +26345,10 @@
         <v>48</v>
       </c>
       <c r="B19" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20">
@@ -26359,7 +26359,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21">
@@ -26367,7 +26367,7 @@
         <v>50</v>
       </c>
       <c r="B21" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C21" t="s">
         <v>595</v>
@@ -26378,10 +26378,10 @@
         <v>51</v>
       </c>
       <c r="B22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23">
@@ -26389,10 +26389,10 @@
         <v>52</v>
       </c>
       <c r="B23" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C23" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24">
@@ -26403,7 +26403,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25">
@@ -26411,10 +26411,10 @@
         <v>54</v>
       </c>
       <c r="B25" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26">
@@ -26422,7 +26422,7 @@
         <v>55</v>
       </c>
       <c r="B26" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C26" t="s">
         <v>595</v>
@@ -26433,10 +26433,10 @@
         <v>56</v>
       </c>
       <c r="B27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="28">
@@ -26444,10 +26444,10 @@
         <v>57</v>
       </c>
       <c r="B28" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C28" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29">
@@ -26455,10 +26455,10 @@
         <v>58</v>
       </c>
       <c r="B29" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C29" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30">
@@ -26466,7 +26466,7 @@
         <v>59</v>
       </c>
       <c r="B30" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C30" t="s">
         <v>595</v>
@@ -26480,7 +26480,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32">
@@ -26488,7 +26488,7 @@
         <v>61</v>
       </c>
       <c r="B32" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C32" t="s">
         <v>595</v>
@@ -26499,7 +26499,7 @@
         <v>62</v>
       </c>
       <c r="B33" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C33" t="s">
         <v>595</v>
@@ -26510,10 +26510,10 @@
         <v>63</v>
       </c>
       <c r="B34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C34" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35">
@@ -26521,10 +26521,10 @@
         <v>64</v>
       </c>
       <c r="B35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36">
@@ -26532,10 +26532,10 @@
         <v>65</v>
       </c>
       <c r="B36" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C36" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37">
@@ -26543,10 +26543,10 @@
         <v>66</v>
       </c>
       <c r="B37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C37" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="38">
@@ -26554,10 +26554,10 @@
         <v>67</v>
       </c>
       <c r="B38" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C38" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="39">
@@ -26568,7 +26568,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="40">
@@ -26576,7 +26576,7 @@
         <v>69</v>
       </c>
       <c r="B40" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C40" t="s">
         <v>595</v>
@@ -26587,10 +26587,10 @@
         <v>70</v>
       </c>
       <c r="B41" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C41" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="42">
@@ -26598,10 +26598,10 @@
         <v>71</v>
       </c>
       <c r="B42" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C42" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="43">
@@ -26609,10 +26609,10 @@
         <v>72</v>
       </c>
       <c r="B43" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="44">
@@ -26620,7 +26620,7 @@
         <v>73</v>
       </c>
       <c r="B44" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C44" t="s">
         <v>595</v>
@@ -26631,10 +26631,10 @@
         <v>74</v>
       </c>
       <c r="B45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C45" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="46">
@@ -26642,10 +26642,10 @@
         <v>75</v>
       </c>
       <c r="B46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C46" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="47">
@@ -26653,10 +26653,10 @@
         <v>76</v>
       </c>
       <c r="B47" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C47" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="48">
@@ -26664,10 +26664,10 @@
         <v>77</v>
       </c>
       <c r="B48" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="49">
@@ -26675,10 +26675,10 @@
         <v>78</v>
       </c>
       <c r="B49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C49" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="50">
@@ -26689,7 +26689,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="51">
@@ -26697,10 +26697,10 @@
         <v>80</v>
       </c>
       <c r="B51" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C51" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="52">
@@ -26708,7 +26708,7 @@
         <v>81</v>
       </c>
       <c r="B52" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C52" t="s">
         <v>595</v>
@@ -26719,10 +26719,10 @@
         <v>82</v>
       </c>
       <c r="B53" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C53" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="54">
@@ -26730,10 +26730,10 @@
         <v>83</v>
       </c>
       <c r="B54" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C54" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="55">
@@ -26741,10 +26741,10 @@
         <v>84</v>
       </c>
       <c r="B55" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C55" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="56">
@@ -26752,10 +26752,10 @@
         <v>85</v>
       </c>
       <c r="B56" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C56" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="57">
@@ -26763,10 +26763,10 @@
         <v>86</v>
       </c>
       <c r="B57" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C57" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="58">
@@ -26774,10 +26774,10 @@
         <v>87</v>
       </c>
       <c r="B58" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C58" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="59">
@@ -26785,7 +26785,7 @@
         <v>88</v>
       </c>
       <c r="B59" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C59" t="s">
         <v>595</v>
@@ -26796,10 +26796,10 @@
         <v>89</v>
       </c>
       <c r="B60" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C60" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="61">
@@ -26807,10 +26807,10 @@
         <v>90</v>
       </c>
       <c r="B61" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C61" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="62">
@@ -26818,10 +26818,10 @@
         <v>91</v>
       </c>
       <c r="B62" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C62" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="63">
@@ -26829,10 +26829,10 @@
         <v>92</v>
       </c>
       <c r="B63" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C63" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64">
@@ -26843,7 +26843,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="65">
@@ -26851,10 +26851,10 @@
         <v>94</v>
       </c>
       <c r="B65" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C65" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="66">
@@ -26865,7 +26865,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="67">
@@ -26873,10 +26873,10 @@
         <v>96</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C67" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68">
@@ -26887,7 +26887,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="69">
@@ -26895,10 +26895,10 @@
         <v>98</v>
       </c>
       <c r="B69" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C69" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="70">
@@ -26906,10 +26906,10 @@
         <v>99</v>
       </c>
       <c r="B70" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C70" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="71">
@@ -26917,7 +26917,7 @@
         <v>100</v>
       </c>
       <c r="B71" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C71" t="s">
         <v>595</v>
@@ -26931,7 +26931,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="73">
@@ -26942,7 +26942,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="74">
@@ -26950,10 +26950,10 @@
         <v>103</v>
       </c>
       <c r="B74" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C74" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="75">
@@ -26961,10 +26961,10 @@
         <v>104</v>
       </c>
       <c r="B75" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C75" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="76">
@@ -26972,10 +26972,10 @@
         <v>105</v>
       </c>
       <c r="B76" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C76" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="77">
@@ -26983,10 +26983,10 @@
         <v>106</v>
       </c>
       <c r="B77" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C77" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="78">
@@ -26994,10 +26994,10 @@
         <v>107</v>
       </c>
       <c r="B78" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C78" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="79">
@@ -27008,7 +27008,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="80">
@@ -27016,10 +27016,10 @@
         <v>109</v>
       </c>
       <c r="B80" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C80" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="81">
@@ -27027,10 +27027,10 @@
         <v>110</v>
       </c>
       <c r="B81" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C81" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="82">
@@ -27038,10 +27038,10 @@
         <v>111</v>
       </c>
       <c r="B82" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C82" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="83">
@@ -27049,10 +27049,10 @@
         <v>112</v>
       </c>
       <c r="B83" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C83" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="84">
@@ -27060,10 +27060,10 @@
         <v>113</v>
       </c>
       <c r="B84" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C84" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="85">
@@ -27071,10 +27071,10 @@
         <v>114</v>
       </c>
       <c r="B85" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C85" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="86">
@@ -27085,7 +27085,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="87">
@@ -27093,7 +27093,7 @@
         <v>116</v>
       </c>
       <c r="B87" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C87" t="s">
         <v>595</v>
@@ -27104,10 +27104,10 @@
         <v>117</v>
       </c>
       <c r="B88" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C88" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="89">
@@ -27115,10 +27115,10 @@
         <v>118</v>
       </c>
       <c r="B89" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C89" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="90">
@@ -27126,10 +27126,10 @@
         <v>119</v>
       </c>
       <c r="B90" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C90" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="91">
@@ -27137,7 +27137,7 @@
         <v>120</v>
       </c>
       <c r="B91" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C91" t="s">
         <v>595</v>
@@ -27148,10 +27148,10 @@
         <v>121</v>
       </c>
       <c r="B92" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C92" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="93">
@@ -27162,7 +27162,7 @@
         <v>0.0</v>
       </c>
       <c r="C93" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="94">
@@ -27173,7 +27173,7 @@
         <v>0.0</v>
       </c>
       <c r="C94" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="95">
@@ -27184,7 +27184,7 @@
         <v>0.0</v>
       </c>
       <c r="C95" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="96">
@@ -27195,7 +27195,7 @@
         <v>0.0</v>
       </c>
       <c r="C96" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="97">
@@ -27203,10 +27203,10 @@
         <v>126</v>
       </c>
       <c r="B97" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C97" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="98">
@@ -27214,10 +27214,10 @@
         <v>127</v>
       </c>
       <c r="B98" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C98" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="99">
@@ -27225,10 +27225,10 @@
         <v>128</v>
       </c>
       <c r="B99" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C99" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="100">
@@ -27236,7 +27236,7 @@
         <v>129</v>
       </c>
       <c r="B100" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C100" t="s">
         <v>595</v>
@@ -27247,10 +27247,10 @@
         <v>130</v>
       </c>
       <c r="B101" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C101" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="102">
@@ -27261,7 +27261,7 @@
         <v>0.0</v>
       </c>
       <c r="C102" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="103">
@@ -27269,10 +27269,10 @@
         <v>132</v>
       </c>
       <c r="B103" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C103" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="104">
@@ -27280,10 +27280,10 @@
         <v>133</v>
       </c>
       <c r="B104" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C104" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="105">
@@ -27291,7 +27291,7 @@
         <v>134</v>
       </c>
       <c r="B105" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C105" t="s">
         <v>595</v>
@@ -27302,10 +27302,10 @@
         <v>135</v>
       </c>
       <c r="B106" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C106" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="107">
@@ -27316,7 +27316,7 @@
         <v>0.0</v>
       </c>
       <c r="C107" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="108">
@@ -27324,7 +27324,7 @@
         <v>137</v>
       </c>
       <c r="B108" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C108" t="s">
         <v>595</v>
@@ -27338,7 +27338,7 @@
         <v>0.0</v>
       </c>
       <c r="C109" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="110">
@@ -27346,10 +27346,10 @@
         <v>139</v>
       </c>
       <c r="B110" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C110" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="111">
@@ -27357,10 +27357,10 @@
         <v>140</v>
       </c>
       <c r="B111" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C111" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="112">
@@ -27368,10 +27368,10 @@
         <v>141</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C112" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="113">
@@ -27379,10 +27379,10 @@
         <v>142</v>
       </c>
       <c r="B113" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C113" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="114">
@@ -27390,7 +27390,7 @@
         <v>143</v>
       </c>
       <c r="B114" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C114" t="s">
         <v>595</v>
@@ -27401,10 +27401,10 @@
         <v>144</v>
       </c>
       <c r="B115" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C115" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="116">
@@ -27412,10 +27412,10 @@
         <v>145</v>
       </c>
       <c r="B116" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C116" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="117">
@@ -27426,7 +27426,7 @@
         <v>0.0</v>
       </c>
       <c r="C117" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="118">
@@ -27434,10 +27434,10 @@
         <v>147</v>
       </c>
       <c r="B118" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C118" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="119">
@@ -27445,10 +27445,10 @@
         <v>148</v>
       </c>
       <c r="B119" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C119" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="120">
@@ -27459,7 +27459,7 @@
         <v>0.0</v>
       </c>
       <c r="C120" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="121">
@@ -27467,10 +27467,10 @@
         <v>150</v>
       </c>
       <c r="B121" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C121" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="122">
@@ -27478,10 +27478,10 @@
         <v>151</v>
       </c>
       <c r="B122" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C122" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="123">
@@ -27492,7 +27492,7 @@
         <v>0.0</v>
       </c>
       <c r="C123" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="124">
@@ -27500,10 +27500,10 @@
         <v>153</v>
       </c>
       <c r="B124" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C124" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="125">
@@ -27511,10 +27511,10 @@
         <v>154</v>
       </c>
       <c r="B125" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C125" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="126">
@@ -27522,7 +27522,7 @@
         <v>155</v>
       </c>
       <c r="B126" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C126" t="s">
         <v>595</v>
@@ -27533,10 +27533,10 @@
         <v>156</v>
       </c>
       <c r="B127" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C127" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="128">
@@ -27547,7 +27547,7 @@
         <v>0.0</v>
       </c>
       <c r="C128" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="129">
@@ -27555,7 +27555,7 @@
         <v>158</v>
       </c>
       <c r="B129" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C129" t="s">
         <v>595</v>
@@ -27566,10 +27566,10 @@
         <v>159</v>
       </c>
       <c r="B130" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C130" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="131">
@@ -27577,7 +27577,7 @@
         <v>160</v>
       </c>
       <c r="B131" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C131" t="s">
         <v>595</v>
@@ -27588,7 +27588,7 @@
         <v>161</v>
       </c>
       <c r="B132" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C132" t="s">
         <v>595</v>
@@ -27599,10 +27599,10 @@
         <v>162</v>
       </c>
       <c r="B133" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C133" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="134">
@@ -27613,7 +27613,7 @@
         <v>0.0</v>
       </c>
       <c r="C134" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="135">
@@ -27621,10 +27621,10 @@
         <v>164</v>
       </c>
       <c r="B135" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C135" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="136">
@@ -27632,10 +27632,10 @@
         <v>165</v>
       </c>
       <c r="B136" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C136" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="137">
@@ -27643,10 +27643,10 @@
         <v>166</v>
       </c>
       <c r="B137" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C137" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="138">
@@ -27654,10 +27654,10 @@
         <v>167</v>
       </c>
       <c r="B138" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C138" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="139">
@@ -27665,10 +27665,10 @@
         <v>168</v>
       </c>
       <c r="B139" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C139" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="140">
@@ -27676,10 +27676,10 @@
         <v>169</v>
       </c>
       <c r="B140" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C140" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="141">
@@ -27690,7 +27690,7 @@
         <v>2.0</v>
       </c>
       <c r="C141" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="142">
@@ -27698,10 +27698,10 @@
         <v>171</v>
       </c>
       <c r="B142" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C142" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="143">
@@ -27712,7 +27712,7 @@
         <v>2.0</v>
       </c>
       <c r="C143" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="144">
@@ -27723,7 +27723,7 @@
         <v>2.0</v>
       </c>
       <c r="C144" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="145">
@@ -27734,7 +27734,7 @@
         <v>2.0</v>
       </c>
       <c r="C145" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="146">
@@ -27742,10 +27742,10 @@
         <v>175</v>
       </c>
       <c r="B146" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C146" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="147">
@@ -27753,10 +27753,10 @@
         <v>176</v>
       </c>
       <c r="B147" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C147" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="148">
@@ -27764,10 +27764,10 @@
         <v>177</v>
       </c>
       <c r="B148" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C148" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="149">
@@ -27775,10 +27775,10 @@
         <v>178</v>
       </c>
       <c r="B149" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C149" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="150">
@@ -27786,10 +27786,10 @@
         <v>179</v>
       </c>
       <c r="B150" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C150" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="151">
@@ -27800,7 +27800,7 @@
         <v>2.0</v>
       </c>
       <c r="C151" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="152">
@@ -27808,7 +27808,7 @@
         <v>181</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C152" t="s">
         <v>598</v>
@@ -27819,10 +27819,10 @@
         <v>182</v>
       </c>
       <c r="B153" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C153" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="154">
@@ -27830,10 +27830,10 @@
         <v>183</v>
       </c>
       <c r="B154" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C154" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="155">
@@ -27844,7 +27844,7 @@
         <v>2.0</v>
       </c>
       <c r="C155" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="156">
@@ -27852,10 +27852,10 @@
         <v>185</v>
       </c>
       <c r="B156" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C156" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="157">
@@ -27863,10 +27863,10 @@
         <v>186</v>
       </c>
       <c r="B157" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C157" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="158">
@@ -27874,7 +27874,7 @@
         <v>187</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C158" t="s">
         <v>598</v>
@@ -27885,10 +27885,10 @@
         <v>188</v>
       </c>
       <c r="B159" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C159" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="160">
@@ -27896,10 +27896,10 @@
         <v>189</v>
       </c>
       <c r="B160" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C160" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="161">
@@ -27907,10 +27907,10 @@
         <v>190</v>
       </c>
       <c r="B161" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C161" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="162">
@@ -27918,10 +27918,10 @@
         <v>191</v>
       </c>
       <c r="B162" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C162" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="163">
@@ -27929,10 +27929,10 @@
         <v>192</v>
       </c>
       <c r="B163" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C163" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="164">
@@ -27940,10 +27940,10 @@
         <v>193</v>
       </c>
       <c r="B164" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C164" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="165">
@@ -27951,10 +27951,10 @@
         <v>194</v>
       </c>
       <c r="B165" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C165" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="166">
@@ -27962,10 +27962,10 @@
         <v>195</v>
       </c>
       <c r="B166" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C166" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="167">
@@ -27973,10 +27973,10 @@
         <v>196</v>
       </c>
       <c r="B167" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C167" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="168">
@@ -27984,7 +27984,7 @@
         <v>197</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C168" t="s">
         <v>598</v>
@@ -27995,7 +27995,7 @@
         <v>198</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C169" t="s">
         <v>598</v>
@@ -28006,10 +28006,10 @@
         <v>199</v>
       </c>
       <c r="B170" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C170" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="171">
@@ -28017,10 +28017,10 @@
         <v>200</v>
       </c>
       <c r="B171" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C171" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="172">
@@ -28031,7 +28031,7 @@
         <v>2.0</v>
       </c>
       <c r="C172" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="173">
@@ -28039,10 +28039,10 @@
         <v>202</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="C173" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="174">
@@ -28050,10 +28050,10 @@
         <v>203</v>
       </c>
       <c r="B174" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C174" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="175">
@@ -28061,7 +28061,7 @@
         <v>204</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C175" t="s">
         <v>598</v>
@@ -28072,10 +28072,10 @@
         <v>205</v>
       </c>
       <c r="B176" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C176" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="177">
@@ -28083,7 +28083,7 @@
         <v>206</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C177" t="s">
         <v>598</v>
@@ -28094,7 +28094,7 @@
         <v>207</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C178" t="s">
         <v>598</v>
@@ -28105,10 +28105,10 @@
         <v>208</v>
       </c>
       <c r="B179" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C179" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="180">
@@ -28119,7 +28119,7 @@
         <v>2.0</v>
       </c>
       <c r="C180" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="181">
@@ -28130,7 +28130,7 @@
         <v>1.0</v>
       </c>
       <c r="C181" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="182">
@@ -28141,7 +28141,7 @@
         <v>1.0</v>
       </c>
       <c r="C182" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="183">
@@ -28149,10 +28149,10 @@
         <v>212</v>
       </c>
       <c r="B183" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C183" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="184">
@@ -28163,7 +28163,7 @@
         <v>1.0</v>
       </c>
       <c r="C184" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="185">
@@ -28171,7 +28171,7 @@
         <v>214</v>
       </c>
       <c r="B185" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C185" t="s">
         <v>597</v>
@@ -28182,10 +28182,10 @@
         <v>215</v>
       </c>
       <c r="B186" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C186" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="187">
@@ -28193,10 +28193,10 @@
         <v>216</v>
       </c>
       <c r="B187" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C187" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="188">
@@ -28207,7 +28207,7 @@
         <v>1.0</v>
       </c>
       <c r="C188" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="189">
@@ -28215,7 +28215,7 @@
         <v>218</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C189" t="s">
         <v>598</v>
@@ -28226,10 +28226,10 @@
         <v>219</v>
       </c>
       <c r="B190" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C190" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="191">
@@ -28237,10 +28237,10 @@
         <v>220</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C191" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="192">
@@ -28248,7 +28248,7 @@
         <v>221</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C192" t="s">
         <v>598</v>
@@ -28262,7 +28262,7 @@
         <v>3.0</v>
       </c>
       <c r="C193" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="194">
@@ -28270,10 +28270,10 @@
         <v>223</v>
       </c>
       <c r="B194" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C194" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="195">
@@ -28281,10 +28281,10 @@
         <v>224</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C195" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="196">
@@ -28292,10 +28292,10 @@
         <v>225</v>
       </c>
       <c r="B196" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C196" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="197">
@@ -28306,7 +28306,7 @@
         <v>1.0</v>
       </c>
       <c r="C197" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="198">
@@ -28317,7 +28317,7 @@
         <v>1.0</v>
       </c>
       <c r="C198" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="199">
@@ -28328,7 +28328,7 @@
         <v>1.0</v>
       </c>
       <c r="C199" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="200">
@@ -28336,10 +28336,10 @@
         <v>229</v>
       </c>
       <c r="B200" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C200" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="201">
@@ -28350,7 +28350,7 @@
         <v>1.0</v>
       </c>
       <c r="C201" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="202">
@@ -28361,7 +28361,7 @@
         <v>1.0</v>
       </c>
       <c r="C202" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="203">
@@ -28369,10 +28369,10 @@
         <v>232</v>
       </c>
       <c r="B203" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C203" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="204">
@@ -28383,7 +28383,7 @@
         <v>1.0</v>
       </c>
       <c r="C204" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="205">
@@ -28391,10 +28391,10 @@
         <v>234</v>
       </c>
       <c r="B205" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C205" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="206">
@@ -28402,10 +28402,10 @@
         <v>235</v>
       </c>
       <c r="B206" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C206" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="207">
@@ -28413,10 +28413,10 @@
         <v>236</v>
       </c>
       <c r="B207" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C207" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="208">
@@ -28427,7 +28427,7 @@
         <v>1.0</v>
       </c>
       <c r="C208" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="209">
@@ -28435,10 +28435,10 @@
         <v>238</v>
       </c>
       <c r="B209" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C209" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="210">
@@ -28449,7 +28449,7 @@
         <v>1.0</v>
       </c>
       <c r="C210" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="211">
@@ -28457,10 +28457,10 @@
         <v>240</v>
       </c>
       <c r="B211" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C211" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="212">
@@ -28468,7 +28468,7 @@
         <v>241</v>
       </c>
       <c r="B212" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C212" t="s">
         <v>597</v>
@@ -28479,7 +28479,7 @@
         <v>242</v>
       </c>
       <c r="B213" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C213" t="s">
         <v>597</v>
@@ -28490,7 +28490,7 @@
         <v>243</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C214" t="s">
         <v>598</v>
@@ -28501,10 +28501,10 @@
         <v>244</v>
       </c>
       <c r="B215" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C215" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="216">
@@ -28515,7 +28515,7 @@
         <v>2.0</v>
       </c>
       <c r="C216" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="217">
@@ -28523,7 +28523,7 @@
         <v>246</v>
       </c>
       <c r="B217" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C217" t="s">
         <v>597</v>
@@ -28537,7 +28537,7 @@
         <v>1.0</v>
       </c>
       <c r="C218" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="219">
@@ -28545,10 +28545,10 @@
         <v>248</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C219" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="220">
@@ -28556,10 +28556,10 @@
         <v>249</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C220" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="221">
@@ -28567,10 +28567,10 @@
         <v>250</v>
       </c>
       <c r="B221" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C221" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="222">
@@ -28578,10 +28578,10 @@
         <v>251</v>
       </c>
       <c r="B222" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C222" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="223">
@@ -28589,7 +28589,7 @@
         <v>252</v>
       </c>
       <c r="B223" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C223" t="s">
         <v>597</v>
@@ -28603,7 +28603,7 @@
         <v>1.0</v>
       </c>
       <c r="C224" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="225">
@@ -28611,7 +28611,7 @@
         <v>254</v>
       </c>
       <c r="B225" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C225" t="s">
         <v>597</v>
@@ -28622,10 +28622,10 @@
         <v>255</v>
       </c>
       <c r="B226" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C226" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="227">
@@ -28633,10 +28633,10 @@
         <v>256</v>
       </c>
       <c r="B227" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C227" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="228">
@@ -28644,10 +28644,10 @@
         <v>257</v>
       </c>
       <c r="B228" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C228" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="229">
@@ -28655,10 +28655,10 @@
         <v>258</v>
       </c>
       <c r="B229" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C229" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="230">
@@ -28666,10 +28666,10 @@
         <v>259</v>
       </c>
       <c r="B230" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C230" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="231">
@@ -28677,10 +28677,10 @@
         <v>260</v>
       </c>
       <c r="B231" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C231" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="232">
@@ -28691,7 +28691,7 @@
         <v>0.0</v>
       </c>
       <c r="C232" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="233">
@@ -28702,7 +28702,7 @@
         <v>0.0</v>
       </c>
       <c r="C233" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="234">
@@ -28710,10 +28710,10 @@
         <v>263</v>
       </c>
       <c r="B234" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C234" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="235">
@@ -28721,7 +28721,7 @@
         <v>264</v>
       </c>
       <c r="B235" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C235" t="s">
         <v>595</v>
@@ -28732,7 +28732,7 @@
         <v>265</v>
       </c>
       <c r="B236" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C236" t="s">
         <v>595</v>
@@ -28746,7 +28746,7 @@
         <v>0.0</v>
       </c>
       <c r="C237" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="238">
@@ -28754,7 +28754,7 @@
         <v>267</v>
       </c>
       <c r="B238" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C238" t="s">
         <v>595</v>
@@ -28765,10 +28765,10 @@
         <v>268</v>
       </c>
       <c r="B239" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C239" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="240">
@@ -28776,10 +28776,10 @@
         <v>269</v>
       </c>
       <c r="B240" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C240" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="241">
@@ -28787,10 +28787,10 @@
         <v>270</v>
       </c>
       <c r="B241" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C241" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="242">
@@ -28798,7 +28798,7 @@
         <v>271</v>
       </c>
       <c r="B242" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C242" t="s">
         <v>595</v>
@@ -28809,7 +28809,7 @@
         <v>272</v>
       </c>
       <c r="B243" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C243" t="s">
         <v>597</v>
@@ -28820,10 +28820,10 @@
         <v>273</v>
       </c>
       <c r="B244" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C244" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="245">
@@ -28831,7 +28831,7 @@
         <v>274</v>
       </c>
       <c r="B245" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C245" t="s">
         <v>595</v>
@@ -28842,10 +28842,10 @@
         <v>275</v>
       </c>
       <c r="B246" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C246" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="247">
@@ -28856,7 +28856,7 @@
         <v>0.0</v>
       </c>
       <c r="C247" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="248">
@@ -28864,10 +28864,10 @@
         <v>277</v>
       </c>
       <c r="B248" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C248" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="249">
@@ -28878,7 +28878,7 @@
         <v>0.0</v>
       </c>
       <c r="C249" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="250">
@@ -28886,10 +28886,10 @@
         <v>279</v>
       </c>
       <c r="B250" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C250" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="251">
@@ -28897,10 +28897,10 @@
         <v>280</v>
       </c>
       <c r="B251" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C251" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="252">
@@ -28908,10 +28908,10 @@
         <v>281</v>
       </c>
       <c r="B252" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C252" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="253">
@@ -28919,10 +28919,10 @@
         <v>282</v>
       </c>
       <c r="B253" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C253" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="254">
@@ -28930,7 +28930,7 @@
         <v>283</v>
       </c>
       <c r="B254" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C254" t="s">
         <v>595</v>
@@ -28941,10 +28941,10 @@
         <v>284</v>
       </c>
       <c r="B255" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C255" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="256">
@@ -28952,10 +28952,10 @@
         <v>285</v>
       </c>
       <c r="B256" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C256" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="257">
@@ -28966,7 +28966,7 @@
         <v>0.0</v>
       </c>
       <c r="C257" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="258">
@@ -28974,10 +28974,10 @@
         <v>287</v>
       </c>
       <c r="B258" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C258" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="259">
@@ -28988,7 +28988,7 @@
         <v>0.0</v>
       </c>
       <c r="C259" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="260">
@@ -28999,7 +28999,7 @@
         <v>0.0</v>
       </c>
       <c r="C260" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="261">
@@ -29007,10 +29007,10 @@
         <v>290</v>
       </c>
       <c r="B261" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C261" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="262">
@@ -29018,10 +29018,10 @@
         <v>291</v>
       </c>
       <c r="B262" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C262" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="263">
@@ -29029,10 +29029,10 @@
         <v>292</v>
       </c>
       <c r="B263" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C263" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="264">
@@ -29040,10 +29040,10 @@
         <v>293</v>
       </c>
       <c r="B264" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C264" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="265">
@@ -29051,10 +29051,10 @@
         <v>294</v>
       </c>
       <c r="B265" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C265" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="266">
@@ -29062,10 +29062,10 @@
         <v>295</v>
       </c>
       <c r="B266" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C266" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="267">
@@ -29073,7 +29073,7 @@
         <v>296</v>
       </c>
       <c r="B267" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C267" t="s">
         <v>595</v>
@@ -29084,7 +29084,7 @@
         <v>297</v>
       </c>
       <c r="B268" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C268" t="s">
         <v>595</v>
@@ -29095,7 +29095,7 @@
         <v>298</v>
       </c>
       <c r="B269" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C269" t="s">
         <v>595</v>
@@ -29106,10 +29106,10 @@
         <v>299</v>
       </c>
       <c r="B270" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C270" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="271">
@@ -29117,7 +29117,7 @@
         <v>300</v>
       </c>
       <c r="B271" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C271" t="s">
         <v>595</v>
@@ -29131,7 +29131,7 @@
         <v>0.0</v>
       </c>
       <c r="C272" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="273">
@@ -29139,7 +29139,7 @@
         <v>302</v>
       </c>
       <c r="B273" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C273" t="s">
         <v>595</v>
@@ -29153,7 +29153,7 @@
         <v>0.0</v>
       </c>
       <c r="C274" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="275">
@@ -29161,7 +29161,7 @@
         <v>304</v>
       </c>
       <c r="B275" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C275" t="s">
         <v>595</v>
@@ -29172,7 +29172,7 @@
         <v>305</v>
       </c>
       <c r="B276" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C276" t="s">
         <v>595</v>
@@ -29186,7 +29186,7 @@
         <v>0.0</v>
       </c>
       <c r="C277" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="278">
@@ -29194,10 +29194,10 @@
         <v>307</v>
       </c>
       <c r="B278" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C278" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="279">
@@ -29205,7 +29205,7 @@
         <v>308</v>
       </c>
       <c r="B279" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C279" t="s">
         <v>595</v>
@@ -29216,10 +29216,10 @@
         <v>309</v>
       </c>
       <c r="B280" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C280" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="281">
@@ -29230,7 +29230,7 @@
         <v>0.0</v>
       </c>
       <c r="C281" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="282">
@@ -29241,7 +29241,7 @@
         <v>0.0</v>
       </c>
       <c r="C282" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="283">
@@ -29249,10 +29249,10 @@
         <v>312</v>
       </c>
       <c r="B283" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C283" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="284">
@@ -29260,10 +29260,10 @@
         <v>313</v>
       </c>
       <c r="B284" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C284" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="285">
@@ -29271,10 +29271,10 @@
         <v>314</v>
       </c>
       <c r="B285" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C285" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="286">
@@ -29285,7 +29285,7 @@
         <v>0.0</v>
       </c>
       <c r="C286" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="287">
@@ -29293,10 +29293,10 @@
         <v>316</v>
       </c>
       <c r="B287" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C287" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="288">
@@ -29304,10 +29304,10 @@
         <v>317</v>
       </c>
       <c r="B288" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C288" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="289">
@@ -29315,10 +29315,10 @@
         <v>318</v>
       </c>
       <c r="B289" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C289" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="290">
@@ -29326,10 +29326,10 @@
         <v>319</v>
       </c>
       <c r="B290" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C290" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="291">
@@ -29337,10 +29337,10 @@
         <v>320</v>
       </c>
       <c r="B291" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C291" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="292">
@@ -29351,7 +29351,7 @@
         <v>1.0</v>
       </c>
       <c r="C292" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="293">
@@ -29359,10 +29359,10 @@
         <v>322</v>
       </c>
       <c r="B293" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C293" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="294">
@@ -29370,10 +29370,10 @@
         <v>323</v>
       </c>
       <c r="B294" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C294" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="295">
@@ -29381,10 +29381,10 @@
         <v>324</v>
       </c>
       <c r="B295" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C295" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="296">
@@ -29392,7 +29392,7 @@
         <v>325</v>
       </c>
       <c r="B296" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C296" t="s">
         <v>595</v>
@@ -29403,10 +29403,10 @@
         <v>326</v>
       </c>
       <c r="B297" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C297" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="298">
@@ -29414,10 +29414,10 @@
         <v>327</v>
       </c>
       <c r="B298" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C298" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="299">
@@ -29425,10 +29425,10 @@
         <v>328</v>
       </c>
       <c r="B299" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C299" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="300">
@@ -29436,10 +29436,10 @@
         <v>329</v>
       </c>
       <c r="B300" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C300" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="301">
@@ -29447,10 +29447,10 @@
         <v>330</v>
       </c>
       <c r="B301" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C301" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="302">
@@ -29458,10 +29458,10 @@
         <v>331</v>
       </c>
       <c r="B302" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C302" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="303">
@@ -29469,10 +29469,10 @@
         <v>332</v>
       </c>
       <c r="B303" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C303" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="304">
@@ -29483,7 +29483,7 @@
         <v>0.0</v>
       </c>
       <c r="C304" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="305">
@@ -29491,10 +29491,10 @@
         <v>334</v>
       </c>
       <c r="B305" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C305" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="306">
@@ -29502,7 +29502,7 @@
         <v>335</v>
       </c>
       <c r="B306" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C306" t="s">
         <v>595</v>
@@ -29513,10 +29513,10 @@
         <v>336</v>
       </c>
       <c r="B307" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C307" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="308">
@@ -29524,7 +29524,7 @@
         <v>337</v>
       </c>
       <c r="B308" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C308" t="s">
         <v>595</v>
@@ -29535,10 +29535,10 @@
         <v>338</v>
       </c>
       <c r="B309" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C309" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="310">
@@ -29549,7 +29549,7 @@
         <v>0.0</v>
       </c>
       <c r="C310" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="311">
@@ -29557,10 +29557,10 @@
         <v>340</v>
       </c>
       <c r="B311" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C311" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="312">
@@ -29568,7 +29568,7 @@
         <v>341</v>
       </c>
       <c r="B312" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C312" t="s">
         <v>595</v>
@@ -29579,10 +29579,10 @@
         <v>342</v>
       </c>
       <c r="B313" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C313" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="314">
@@ -29593,7 +29593,7 @@
         <v>0.0</v>
       </c>
       <c r="C314" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="315">
@@ -29601,10 +29601,10 @@
         <v>344</v>
       </c>
       <c r="B315" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C315" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="316">
@@ -29612,7 +29612,7 @@
         <v>345</v>
       </c>
       <c r="B316" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C316" t="s">
         <v>597</v>
@@ -29623,7 +29623,7 @@
         <v>346</v>
       </c>
       <c r="B317" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C317" t="s">
         <v>595</v>
@@ -29634,10 +29634,10 @@
         <v>347</v>
       </c>
       <c r="B318" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C318" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="319">
@@ -29645,10 +29645,10 @@
         <v>348</v>
       </c>
       <c r="B319" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C319" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="320">
@@ -29659,7 +29659,7 @@
         <v>0.0</v>
       </c>
       <c r="C320" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="321">
@@ -29667,10 +29667,10 @@
         <v>350</v>
       </c>
       <c r="B321" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C321" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="322">
@@ -29678,10 +29678,10 @@
         <v>351</v>
       </c>
       <c r="B322" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C322" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="323">
@@ -29689,10 +29689,10 @@
         <v>352</v>
       </c>
       <c r="B323" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C323" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="324">
@@ -29700,10 +29700,10 @@
         <v>353</v>
       </c>
       <c r="B324" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C324" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="325">
@@ -29711,10 +29711,10 @@
         <v>354</v>
       </c>
       <c r="B325" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C325" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="326">
@@ -29722,10 +29722,10 @@
         <v>355</v>
       </c>
       <c r="B326" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C326" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="327">
@@ -29733,10 +29733,10 @@
         <v>356</v>
       </c>
       <c r="B327" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C327" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="328">
@@ -29747,7 +29747,7 @@
         <v>0.0</v>
       </c>
       <c r="C328" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="329">
@@ -29755,7 +29755,7 @@
         <v>358</v>
       </c>
       <c r="B329" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C329" t="s">
         <v>595</v>
@@ -29766,10 +29766,10 @@
         <v>359</v>
       </c>
       <c r="B330" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C330" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="331">
@@ -29780,7 +29780,7 @@
         <v>0.0</v>
       </c>
       <c r="C331" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="332">
@@ -29791,7 +29791,7 @@
         <v>0.0</v>
       </c>
       <c r="C332" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="333">
@@ -29799,10 +29799,10 @@
         <v>362</v>
       </c>
       <c r="B333" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C333" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="334">
@@ -29810,10 +29810,10 @@
         <v>363</v>
       </c>
       <c r="B334" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C334" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="335">
@@ -29821,7 +29821,7 @@
         <v>364</v>
       </c>
       <c r="B335" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C335" t="s">
         <v>597</v>
@@ -29832,7 +29832,7 @@
         <v>365</v>
       </c>
       <c r="B336" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C336" t="s">
         <v>595</v>
@@ -29843,7 +29843,7 @@
         <v>366</v>
       </c>
       <c r="B337" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C337" t="s">
         <v>595</v>
@@ -29854,10 +29854,10 @@
         <v>367</v>
       </c>
       <c r="B338" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C338" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="339">
@@ -29865,10 +29865,10 @@
         <v>368</v>
       </c>
       <c r="B339" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C339" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="340">
@@ -29876,10 +29876,10 @@
         <v>369</v>
       </c>
       <c r="B340" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C340" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="341">
@@ -29887,10 +29887,10 @@
         <v>370</v>
       </c>
       <c r="B341" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C341" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="342">
@@ -29901,7 +29901,7 @@
         <v>0.0</v>
       </c>
       <c r="C342" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="343">
@@ -29909,7 +29909,7 @@
         <v>372</v>
       </c>
       <c r="B343" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C343" t="s">
         <v>595</v>
@@ -29923,7 +29923,7 @@
         <v>0.0</v>
       </c>
       <c r="C344" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="345">
@@ -29931,10 +29931,10 @@
         <v>374</v>
       </c>
       <c r="B345" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C345" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="346">
@@ -29942,10 +29942,10 @@
         <v>375</v>
       </c>
       <c r="B346" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C346" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="347">
@@ -29956,7 +29956,7 @@
         <v>0.0</v>
       </c>
       <c r="C347" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="348">
@@ -29964,10 +29964,10 @@
         <v>377</v>
       </c>
       <c r="B348" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C348" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="349">
@@ -29975,10 +29975,10 @@
         <v>378</v>
       </c>
       <c r="B349" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C349" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="350">
@@ -29986,7 +29986,7 @@
         <v>379</v>
       </c>
       <c r="B350" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C350" t="s">
         <v>595</v>
@@ -29997,10 +29997,10 @@
         <v>380</v>
       </c>
       <c r="B351" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C351" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="352">
@@ -30008,10 +30008,10 @@
         <v>381</v>
       </c>
       <c r="B352" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C352" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="353">
@@ -30022,7 +30022,7 @@
         <v>3.0</v>
       </c>
       <c r="C353" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="354">
@@ -30030,7 +30030,7 @@
         <v>383</v>
       </c>
       <c r="B354" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C354" t="s">
         <v>596</v>
@@ -30044,7 +30044,7 @@
         <v>2.0</v>
       </c>
       <c r="C355" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="356">
@@ -30055,7 +30055,7 @@
         <v>1.0</v>
       </c>
       <c r="C356" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="357">
@@ -30063,10 +30063,10 @@
         <v>386</v>
       </c>
       <c r="B357" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C357" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="358">
@@ -30074,10 +30074,10 @@
         <v>387</v>
       </c>
       <c r="B358" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C358" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="359">
@@ -30085,10 +30085,10 @@
         <v>388</v>
       </c>
       <c r="B359" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C359" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="360">
@@ -30099,7 +30099,7 @@
         <v>1.0</v>
       </c>
       <c r="C360" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="361">
@@ -30110,7 +30110,7 @@
         <v>1.0</v>
       </c>
       <c r="C361" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="362">
@@ -30118,10 +30118,10 @@
         <v>391</v>
       </c>
       <c r="B362" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C362" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="363">
@@ -30129,10 +30129,10 @@
         <v>392</v>
       </c>
       <c r="B363" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C363" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="364">
@@ -30140,10 +30140,10 @@
         <v>393</v>
       </c>
       <c r="B364" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C364" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="365">
@@ -30154,7 +30154,7 @@
         <v>2.0</v>
       </c>
       <c r="C365" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="366">
@@ -30162,10 +30162,10 @@
         <v>395</v>
       </c>
       <c r="B366" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C366" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="367">
@@ -30173,10 +30173,10 @@
         <v>396</v>
       </c>
       <c r="B367" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C367" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="368">
@@ -30184,10 +30184,10 @@
         <v>397</v>
       </c>
       <c r="B368" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C368" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="369">
@@ -30198,7 +30198,7 @@
         <v>1.0</v>
       </c>
       <c r="C369" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="370">
@@ -30206,10 +30206,10 @@
         <v>399</v>
       </c>
       <c r="B370" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C370" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="371">
@@ -30220,7 +30220,7 @@
         <v>1.0</v>
       </c>
       <c r="C371" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="372">
@@ -30228,10 +30228,10 @@
         <v>401</v>
       </c>
       <c r="B372" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C372" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="373">
@@ -30239,10 +30239,10 @@
         <v>402</v>
       </c>
       <c r="B373" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C373" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="374">
@@ -30250,7 +30250,7 @@
         <v>403</v>
       </c>
       <c r="B374" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C374" t="s">
         <v>598</v>
@@ -30261,10 +30261,10 @@
         <v>404</v>
       </c>
       <c r="B375" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C375" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="376">
@@ -30272,10 +30272,10 @@
         <v>405</v>
       </c>
       <c r="B376" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C376" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="377">
@@ -30283,10 +30283,10 @@
         <v>406</v>
       </c>
       <c r="B377" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C377" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="378">
@@ -30294,10 +30294,10 @@
         <v>407</v>
       </c>
       <c r="B378" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C378" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="379">
@@ -30305,10 +30305,10 @@
         <v>408</v>
       </c>
       <c r="B379" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C379" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="380">
@@ -30316,10 +30316,10 @@
         <v>409</v>
       </c>
       <c r="B380" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C380" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="381">
@@ -30327,10 +30327,10 @@
         <v>410</v>
       </c>
       <c r="B381" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C381" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="382">
@@ -30338,10 +30338,10 @@
         <v>411</v>
       </c>
       <c r="B382" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C382" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="383">
@@ -30349,10 +30349,10 @@
         <v>412</v>
       </c>
       <c r="B383" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C383" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="384">
@@ -30360,10 +30360,10 @@
         <v>413</v>
       </c>
       <c r="B384" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C384" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="385">
@@ -30371,7 +30371,7 @@
         <v>414</v>
       </c>
       <c r="B385" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C385" t="s">
         <v>597</v>
@@ -30382,10 +30382,10 @@
         <v>415</v>
       </c>
       <c r="B386" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C386" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="387">
@@ -30396,7 +30396,7 @@
         <v>0.0</v>
       </c>
       <c r="C387" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="388">
@@ -30404,10 +30404,10 @@
         <v>417</v>
       </c>
       <c r="B388" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C388" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="389">
@@ -30418,7 +30418,7 @@
         <v>0.0</v>
       </c>
       <c r="C389" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="390">
@@ -30426,10 +30426,10 @@
         <v>419</v>
       </c>
       <c r="B390" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C390" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="391">
@@ -30437,10 +30437,10 @@
         <v>420</v>
       </c>
       <c r="B391" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C391" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="392">
@@ -30451,7 +30451,7 @@
         <v>0.0</v>
       </c>
       <c r="C392" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="393">
@@ -30459,10 +30459,10 @@
         <v>422</v>
       </c>
       <c r="B393" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C393" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="394">
@@ -30473,7 +30473,7 @@
         <v>0.0</v>
       </c>
       <c r="C394" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="395">
@@ -30481,10 +30481,10 @@
         <v>424</v>
       </c>
       <c r="B395" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C395" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="396">
@@ -30492,7 +30492,7 @@
         <v>425</v>
       </c>
       <c r="B396" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C396" t="s">
         <v>596</v>
@@ -30503,7 +30503,7 @@
         <v>426</v>
       </c>
       <c r="B397" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C397" t="s">
         <v>595</v>
@@ -30517,7 +30517,7 @@
         <v>0.0</v>
       </c>
       <c r="C398" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="399">
@@ -30525,10 +30525,10 @@
         <v>428</v>
       </c>
       <c r="B399" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C399" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="400">
@@ -30536,10 +30536,10 @@
         <v>429</v>
       </c>
       <c r="B400" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C400" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="401">
@@ -30547,10 +30547,10 @@
         <v>430</v>
       </c>
       <c r="B401" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C401" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="402">
@@ -30558,10 +30558,10 @@
         <v>431</v>
       </c>
       <c r="B402" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C402" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="403">
@@ -30569,7 +30569,7 @@
         <v>432</v>
       </c>
       <c r="B403" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C403" t="s">
         <v>595</v>
@@ -30580,10 +30580,10 @@
         <v>433</v>
       </c>
       <c r="B404" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C404" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="405">
@@ -30591,10 +30591,10 @@
         <v>434</v>
       </c>
       <c r="B405" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C405" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="406">
@@ -30602,10 +30602,10 @@
         <v>435</v>
       </c>
       <c r="B406" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C406" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="407">
@@ -30613,10 +30613,10 @@
         <v>436</v>
       </c>
       <c r="B407" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C407" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="408">
@@ -30624,10 +30624,10 @@
         <v>437</v>
       </c>
       <c r="B408" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C408" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="409">
@@ -30635,10 +30635,10 @@
         <v>438</v>
       </c>
       <c r="B409" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C409" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="410">
@@ -30649,7 +30649,7 @@
         <v>0.0</v>
       </c>
       <c r="C410" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="411">
@@ -30657,10 +30657,10 @@
         <v>440</v>
       </c>
       <c r="B411" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C411" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="412">
@@ -30668,10 +30668,10 @@
         <v>441</v>
       </c>
       <c r="B412" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C412" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="413">
@@ -30679,10 +30679,10 @@
         <v>442</v>
       </c>
       <c r="B413" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C413" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="414">
@@ -30690,10 +30690,10 @@
         <v>443</v>
       </c>
       <c r="B414" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="C414" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="415">
@@ -30701,10 +30701,10 @@
         <v>444</v>
       </c>
       <c r="B415" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C415" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="416">
@@ -30715,7 +30715,7 @@
         <v>4.0</v>
       </c>
       <c r="C416" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="417">
@@ -30723,10 +30723,10 @@
         <v>446</v>
       </c>
       <c r="B417" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C417" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="418">
@@ -30734,10 +30734,10 @@
         <v>447</v>
       </c>
       <c r="B418" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C418" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="419">
@@ -30745,10 +30745,10 @@
         <v>448</v>
       </c>
       <c r="B419" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C419" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="420">
@@ -30759,7 +30759,7 @@
         <v>4.0</v>
       </c>
       <c r="C420" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="421">
@@ -30770,7 +30770,7 @@
         <v>4.0</v>
       </c>
       <c r="C421" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="422">
@@ -30781,7 +30781,7 @@
         <v>4.0</v>
       </c>
       <c r="C422" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="423">
@@ -30792,7 +30792,7 @@
         <v>3.0</v>
       </c>
       <c r="C423" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="424">
@@ -30803,7 +30803,7 @@
         <v>3.0</v>
       </c>
       <c r="C424" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="425">
@@ -30814,7 +30814,7 @@
         <v>4.0</v>
       </c>
       <c r="C425" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="426">
@@ -30822,10 +30822,10 @@
         <v>455</v>
       </c>
       <c r="B426" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C426" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="427">
@@ -30836,7 +30836,7 @@
         <v>4.0</v>
       </c>
       <c r="C427" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="428">
@@ -30844,10 +30844,10 @@
         <v>457</v>
       </c>
       <c r="B428" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C428" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="429">
@@ -30855,7 +30855,7 @@
         <v>458</v>
       </c>
       <c r="B429" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C429" t="s">
         <v>599</v>
@@ -30866,7 +30866,7 @@
         <v>459</v>
       </c>
       <c r="B430" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C430" t="s">
         <v>599</v>
@@ -30877,10 +30877,10 @@
         <v>460</v>
       </c>
       <c r="B431" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C431" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="432">
@@ -30888,10 +30888,10 @@
         <v>461</v>
       </c>
       <c r="B432" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C432" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="433">
@@ -30899,10 +30899,10 @@
         <v>462</v>
       </c>
       <c r="B433" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C433" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="434">
@@ -30913,7 +30913,7 @@
         <v>0.0</v>
       </c>
       <c r="C434" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="435">
@@ -30921,7 +30921,7 @@
         <v>464</v>
       </c>
       <c r="B435" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C435" t="s">
         <v>595</v>
@@ -30932,10 +30932,10 @@
         <v>465</v>
       </c>
       <c r="B436" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C436" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="437">
@@ -30943,10 +30943,10 @@
         <v>466</v>
       </c>
       <c r="B437" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C437" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="438">
@@ -30954,10 +30954,10 @@
         <v>467</v>
       </c>
       <c r="B438" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C438" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="439">
@@ -30968,7 +30968,7 @@
         <v>0.0</v>
       </c>
       <c r="C439" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="440">
@@ -30976,10 +30976,10 @@
         <v>469</v>
       </c>
       <c r="B440" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C440" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="441">
@@ -30987,10 +30987,10 @@
         <v>470</v>
       </c>
       <c r="B441" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C441" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="442">
@@ -30998,10 +30998,10 @@
         <v>471</v>
       </c>
       <c r="B442" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C442" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="443">
@@ -31012,7 +31012,7 @@
         <v>0.0</v>
       </c>
       <c r="C443" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="444">
@@ -31020,10 +31020,10 @@
         <v>473</v>
       </c>
       <c r="B444" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C444" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="445">
@@ -31034,7 +31034,7 @@
         <v>0.0</v>
       </c>
       <c r="C445" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="446">
@@ -31042,10 +31042,10 @@
         <v>475</v>
       </c>
       <c r="B446" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C446" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="447">
@@ -31053,7 +31053,7 @@
         <v>476</v>
       </c>
       <c r="B447" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C447" t="s">
         <v>595</v>
@@ -31064,10 +31064,10 @@
         <v>477</v>
       </c>
       <c r="B448" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C448" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="449">
@@ -31075,10 +31075,10 @@
         <v>478</v>
       </c>
       <c r="B449" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C449" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="450">
@@ -31086,7 +31086,7 @@
         <v>479</v>
       </c>
       <c r="B450" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C450" t="s">
         <v>595</v>
@@ -31097,10 +31097,10 @@
         <v>480</v>
       </c>
       <c r="B451" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C451" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="452">
@@ -31111,7 +31111,7 @@
         <v>0.0</v>
       </c>
       <c r="C452" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="453">
@@ -31119,10 +31119,10 @@
         <v>482</v>
       </c>
       <c r="B453" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C453" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="454">
@@ -31130,10 +31130,10 @@
         <v>483</v>
       </c>
       <c r="B454" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C454" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="455">
@@ -31144,7 +31144,7 @@
         <v>1.0</v>
       </c>
       <c r="C455" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="456">
@@ -31152,7 +31152,7 @@
         <v>485</v>
       </c>
       <c r="B456" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C456" t="s">
         <v>597</v>
@@ -31163,10 +31163,10 @@
         <v>486</v>
       </c>
       <c r="B457" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C457" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="458">
@@ -31174,10 +31174,10 @@
         <v>487</v>
       </c>
       <c r="B458" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C458" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="459">
@@ -31188,7 +31188,7 @@
         <v>0.0</v>
       </c>
       <c r="C459" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="460">
@@ -31196,10 +31196,10 @@
         <v>489</v>
       </c>
       <c r="B460" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C460" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="461">
@@ -31207,7 +31207,7 @@
         <v>490</v>
       </c>
       <c r="B461" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C461" t="s">
         <v>595</v>
@@ -31218,10 +31218,10 @@
         <v>491</v>
       </c>
       <c r="B462" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C462" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="463">
@@ -31229,10 +31229,10 @@
         <v>492</v>
       </c>
       <c r="B463" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C463" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="464">
@@ -31240,10 +31240,10 @@
         <v>493</v>
       </c>
       <c r="B464" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C464" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="465">
@@ -31251,10 +31251,10 @@
         <v>494</v>
       </c>
       <c r="B465" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C465" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="466">
@@ -31262,10 +31262,10 @@
         <v>495</v>
       </c>
       <c r="B466" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C466" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="467">
@@ -31273,10 +31273,10 @@
         <v>496</v>
       </c>
       <c r="B467" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C467" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="468">
@@ -31287,7 +31287,7 @@
         <v>1.0</v>
       </c>
       <c r="C468" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="469">
@@ -31295,10 +31295,10 @@
         <v>498</v>
       </c>
       <c r="B469" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C469" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="470">
@@ -31309,7 +31309,7 @@
         <v>1.0</v>
       </c>
       <c r="C470" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="471">
@@ -31317,7 +31317,7 @@
         <v>500</v>
       </c>
       <c r="B471" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C471" t="s">
         <v>597</v>
@@ -31328,10 +31328,10 @@
         <v>501</v>
       </c>
       <c r="B472" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C472" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="473">
@@ -31339,10 +31339,10 @@
         <v>502</v>
       </c>
       <c r="B473" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C473" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="474">
@@ -31350,10 +31350,10 @@
         <v>503</v>
       </c>
       <c r="B474" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C474" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="475">
@@ -31361,10 +31361,10 @@
         <v>504</v>
       </c>
       <c r="B475" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C475" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="476">
@@ -31372,10 +31372,10 @@
         <v>505</v>
       </c>
       <c r="B476" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C476" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="477">
@@ -31383,10 +31383,10 @@
         <v>506</v>
       </c>
       <c r="B477" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C477" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="478">
@@ -31394,7 +31394,7 @@
         <v>507</v>
       </c>
       <c r="B478" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C478" t="s">
         <v>597</v>
@@ -31408,7 +31408,7 @@
         <v>1.0</v>
       </c>
       <c r="C479" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="480">
@@ -31416,10 +31416,10 @@
         <v>509</v>
       </c>
       <c r="B480" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C480" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="481">
@@ -31427,10 +31427,10 @@
         <v>510</v>
       </c>
       <c r="B481" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C481" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="482">
@@ -31438,10 +31438,10 @@
         <v>511</v>
       </c>
       <c r="B482" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C482" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="483">
@@ -31449,7 +31449,7 @@
         <v>512</v>
       </c>
       <c r="B483" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C483" t="s">
         <v>596</v>
@@ -31460,7 +31460,7 @@
         <v>513</v>
       </c>
       <c r="B484" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C484" t="s">
         <v>598</v>
@@ -31471,7 +31471,7 @@
         <v>514</v>
       </c>
       <c r="B485" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C485" t="s">
         <v>598</v>
@@ -31482,10 +31482,10 @@
         <v>515</v>
       </c>
       <c r="B486" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C486" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="487">
@@ -31493,10 +31493,10 @@
         <v>516</v>
       </c>
       <c r="B487" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C487" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="488">
@@ -31504,10 +31504,10 @@
         <v>517</v>
       </c>
       <c r="B488" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C488" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="489">
@@ -31515,7 +31515,7 @@
         <v>518</v>
       </c>
       <c r="B489" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C489" t="s">
         <v>598</v>
@@ -31526,10 +31526,10 @@
         <v>519</v>
       </c>
       <c r="B490" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C490" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="491">
@@ -31540,7 +31540,7 @@
         <v>2.0</v>
       </c>
       <c r="C491" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="492">
@@ -31551,7 +31551,7 @@
         <v>2.0</v>
       </c>
       <c r="C492" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="493">
@@ -31559,10 +31559,10 @@
         <v>522</v>
       </c>
       <c r="B493" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C493" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="494">
@@ -31570,10 +31570,10 @@
         <v>523</v>
       </c>
       <c r="B494" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C494" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="495">
@@ -31581,10 +31581,10 @@
         <v>524</v>
       </c>
       <c r="B495" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C495" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="496">
@@ -31592,10 +31592,10 @@
         <v>525</v>
       </c>
       <c r="B496" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C496" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="497">
@@ -31603,10 +31603,10 @@
         <v>526</v>
       </c>
       <c r="B497" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C497" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="498">
@@ -31614,10 +31614,10 @@
         <v>527</v>
       </c>
       <c r="B498" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C498" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="499">
@@ -31625,10 +31625,10 @@
         <v>528</v>
       </c>
       <c r="B499" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C499" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="500">
@@ -31636,7 +31636,7 @@
         <v>529</v>
       </c>
       <c r="B500" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C500" t="s">
         <v>598</v>
@@ -31647,10 +31647,10 @@
         <v>530</v>
       </c>
       <c r="B501" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C501" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="502">
@@ -31661,7 +31661,7 @@
         <v>2.0</v>
       </c>
       <c r="C502" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="503">
@@ -31672,7 +31672,7 @@
         <v>2.0</v>
       </c>
       <c r="C503" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="504">
@@ -31680,10 +31680,10 @@
         <v>533</v>
       </c>
       <c r="B504" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C504" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="505">
@@ -31694,7 +31694,7 @@
         <v>2.0</v>
       </c>
       <c r="C505" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="506">
@@ -31702,10 +31702,10 @@
         <v>535</v>
       </c>
       <c r="B506" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C506" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="507">
@@ -31713,10 +31713,10 @@
         <v>536</v>
       </c>
       <c r="B507" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C507" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="508">
@@ -31724,10 +31724,10 @@
         <v>537</v>
       </c>
       <c r="B508" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C508" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="509">
@@ -31735,7 +31735,7 @@
         <v>538</v>
       </c>
       <c r="B509" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C509" t="s">
         <v>598</v>
@@ -31746,10 +31746,10 @@
         <v>539</v>
       </c>
       <c r="B510" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C510" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="511">
@@ -31757,10 +31757,10 @@
         <v>540</v>
       </c>
       <c r="B511" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C511" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="512">
@@ -31771,7 +31771,7 @@
         <v>2.0</v>
       </c>
       <c r="C512" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="513">
@@ -31779,10 +31779,10 @@
         <v>542</v>
       </c>
       <c r="B513" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C513" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="514">
@@ -31793,7 +31793,7 @@
         <v>1.0</v>
       </c>
       <c r="C514" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="515">
@@ -31801,7 +31801,7 @@
         <v>544</v>
       </c>
       <c r="B515" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C515" t="s">
         <v>597</v>
@@ -31812,7 +31812,7 @@
         <v>545</v>
       </c>
       <c r="B516" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C516" t="s">
         <v>597</v>
@@ -31823,7 +31823,7 @@
         <v>546</v>
       </c>
       <c r="B517" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C517" t="s">
         <v>597</v>
@@ -31834,10 +31834,10 @@
         <v>547</v>
       </c>
       <c r="B518" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C518" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="519">
@@ -31845,10 +31845,10 @@
         <v>548</v>
       </c>
       <c r="B519" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C519" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="520">
@@ -31856,10 +31856,10 @@
         <v>549</v>
       </c>
       <c r="B520" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C520" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="521">
@@ -31867,7 +31867,7 @@
         <v>550</v>
       </c>
       <c r="B521" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C521" t="s">
         <v>597</v>
@@ -31878,10 +31878,10 @@
         <v>551</v>
       </c>
       <c r="B522" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C522" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="523">
@@ -31889,10 +31889,10 @@
         <v>552</v>
       </c>
       <c r="B523" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C523" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="524">
@@ -31900,10 +31900,10 @@
         <v>553</v>
       </c>
       <c r="B524" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C524" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="525">
@@ -31911,7 +31911,7 @@
         <v>554</v>
       </c>
       <c r="B525" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C525" t="s">
         <v>597</v>
@@ -31922,10 +31922,10 @@
         <v>555</v>
       </c>
       <c r="B526" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C526" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="527">
@@ -31933,10 +31933,10 @@
         <v>556</v>
       </c>
       <c r="B527" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C527" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="528">
@@ -31944,10 +31944,10 @@
         <v>557</v>
       </c>
       <c r="B528" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C528" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="529">
@@ -31955,10 +31955,10 @@
         <v>558</v>
       </c>
       <c r="B529" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C529" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="530">
@@ -31966,10 +31966,10 @@
         <v>559</v>
       </c>
       <c r="B530" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C530" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="531">
@@ -31977,10 +31977,10 @@
         <v>560</v>
       </c>
       <c r="B531" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C531" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="532">
@@ -31988,7 +31988,7 @@
         <v>561</v>
       </c>
       <c r="B532" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C532" t="s">
         <v>597</v>
@@ -31999,7 +31999,7 @@
         <v>562</v>
       </c>
       <c r="B533" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C533" t="s">
         <v>597</v>
@@ -32010,7 +32010,7 @@
         <v>563</v>
       </c>
       <c r="B534" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C534" t="s">
         <v>597</v>
@@ -32021,10 +32021,10 @@
         <v>564</v>
       </c>
       <c r="B535" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C535" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="536">
@@ -32032,7 +32032,7 @@
         <v>565</v>
       </c>
       <c r="B536" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C536" t="s">
         <v>598</v>
@@ -32043,10 +32043,10 @@
         <v>566</v>
       </c>
       <c r="B537" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C537" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="538">
@@ -32054,10 +32054,10 @@
         <v>567</v>
       </c>
       <c r="B538" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C538" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="539">
@@ -32065,10 +32065,10 @@
         <v>568</v>
       </c>
       <c r="B539" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C539" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="540">
@@ -32076,7 +32076,7 @@
         <v>569</v>
       </c>
       <c r="B540" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C540" t="s">
         <v>597</v>
@@ -32090,7 +32090,7 @@
         <v>1.0</v>
       </c>
       <c r="C541" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="542">
@@ -32098,10 +32098,10 @@
         <v>571</v>
       </c>
       <c r="B542" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C542" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="543">
@@ -32109,10 +32109,10 @@
         <v>572</v>
       </c>
       <c r="B543" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C543" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="544">
@@ -32123,7 +32123,7 @@
         <v>1.0</v>
       </c>
       <c r="C544" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="545">
@@ -32131,10 +32131,10 @@
         <v>574</v>
       </c>
       <c r="B545" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C545" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="546">
@@ -32142,10 +32142,10 @@
         <v>575</v>
       </c>
       <c r="B546" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C546" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="547">
@@ -32153,10 +32153,10 @@
         <v>576</v>
       </c>
       <c r="B547" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C547" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
